--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12b-Il12rb1.xlsx
@@ -546,40 +546,40 @@
         <v>0.05209</v>
       </c>
       <c r="I2">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J2">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N2">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O2">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P2">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q2">
-        <v>0.001517711603333333</v>
+        <v>0.004024224525555556</v>
       </c>
       <c r="R2">
-        <v>0.01365940443</v>
+        <v>0.03621802073</v>
       </c>
       <c r="S2">
-        <v>0.0002287724505755854</v>
+        <v>0.000388048467592263</v>
       </c>
       <c r="T2">
-        <v>0.0002371008217804838</v>
+        <v>0.0003950578183513957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.05209</v>
       </c>
       <c r="I3">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J3">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>2.96751</v>
       </c>
       <c r="O3">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P3">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q3">
         <v>0.01717528843333333</v>
@@ -638,10 +638,10 @@
         <v>0.1545775959</v>
       </c>
       <c r="S3">
-        <v>0.002588919275313204</v>
+        <v>0.001656181039274895</v>
       </c>
       <c r="T3">
-        <v>0.002683167864643242</v>
+        <v>0.001686096770928035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.05209</v>
       </c>
       <c r="I4">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J4">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N4">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O4">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P4">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q4">
-        <v>0.03321590039666666</v>
+        <v>0.04015711283222222</v>
       </c>
       <c r="R4">
-        <v>0.29894310357</v>
+        <v>0.36141401549</v>
       </c>
       <c r="S4">
-        <v>0.005006802949342055</v>
+        <v>0.003872275515075087</v>
       </c>
       <c r="T4">
-        <v>0.005189073644117533</v>
+        <v>0.003942220739932106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.05209</v>
       </c>
       <c r="I5">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J5">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N5">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O5">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P5">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q5">
-        <v>0.006849687411666666</v>
+        <v>0.004762137253333333</v>
       </c>
       <c r="R5">
-        <v>0.04109812447</v>
+        <v>0.02857282352</v>
       </c>
       <c r="S5">
-        <v>0.001032488498738557</v>
+        <v>0.0004592040160495059</v>
       </c>
       <c r="T5">
-        <v>0.0007133838913263372</v>
+        <v>0.0003116657701452104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.05209</v>
       </c>
       <c r="I6">
-        <v>0.00979798912684662</v>
+        <v>0.008627148837446561</v>
       </c>
       <c r="J6">
-        <v>0.009797989126846622</v>
+        <v>0.008627148837446563</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N6">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O6">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P6">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q6">
-        <v>0.006242778139999999</v>
+        <v>0.02334837015333333</v>
       </c>
       <c r="R6">
-        <v>0.05618500326</v>
+        <v>0.21013533138</v>
       </c>
       <c r="S6">
-        <v>0.0009410059528772187</v>
+        <v>0.002251439799454811</v>
       </c>
       <c r="T6">
-        <v>0.0009752629049790246</v>
+        <v>0.002292107738089816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>25</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.023931333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.071794</v>
+      </c>
+      <c r="I7">
+        <v>0.5087507014009469</v>
+      </c>
+      <c r="J7">
+        <v>0.5087507014009469</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>1.297778666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.893336</v>
-      </c>
-      <c r="I7">
-        <v>0.7323260471330489</v>
-      </c>
-      <c r="J7">
-        <v>0.7323260471330488</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N7">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O7">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P7">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q7">
-        <v>0.1134375354746667</v>
+        <v>0.2373121280908889</v>
       </c>
       <c r="R7">
-        <v>1.020937819272</v>
+        <v>2.135809152818</v>
       </c>
       <c r="S7">
-        <v>0.01709902126385386</v>
+        <v>0.02288356602916315</v>
       </c>
       <c r="T7">
-        <v>0.01772150441673145</v>
+        <v>0.0232969137274891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H8">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I8">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J8">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.96751</v>
       </c>
       <c r="O8">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P8">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q8">
-        <v>1.283723723706667</v>
+        <v>1.012842156993333</v>
       </c>
       <c r="R8">
-        <v>11.55351351336</v>
+        <v>9.115579412939999</v>
       </c>
       <c r="S8">
-        <v>0.1935022579318642</v>
+        <v>0.09766648069415217</v>
       </c>
       <c r="T8">
-        <v>0.200546631627158</v>
+        <v>0.09943063820994649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H9">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I9">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J9">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N9">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O9">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P9">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q9">
-        <v>2.482638909325333</v>
+        <v>2.368100945581556</v>
       </c>
       <c r="R9">
-        <v>22.343750183928</v>
+        <v>21.312908510234</v>
       </c>
       <c r="S9">
-        <v>0.3742208901435899</v>
+        <v>0.2283515587167319</v>
       </c>
       <c r="T9">
-        <v>0.3878442546610477</v>
+        <v>0.23247629133421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H10">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I10">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J10">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N10">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O10">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P10">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q10">
-        <v>0.5119626528813334</v>
+        <v>0.2808275032053333</v>
       </c>
       <c r="R10">
-        <v>3.071775917288</v>
+        <v>1.684965019232</v>
       </c>
       <c r="S10">
-        <v>0.07717075526444192</v>
+        <v>0.02707967251443225</v>
       </c>
       <c r="T10">
-        <v>0.05332008419890413</v>
+        <v>0.01837920988169392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.297778666666667</v>
+        <v>1.023931333333333</v>
       </c>
       <c r="H11">
-        <v>3.893336</v>
+        <v>3.071794</v>
       </c>
       <c r="I11">
-        <v>0.7323260471330489</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="J11">
-        <v>0.7323260471330488</v>
+        <v>0.5087507014009469</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N11">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O11">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P11">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q11">
-        <v>0.466600746256</v>
+        <v>1.376874320345333</v>
       </c>
       <c r="R11">
-        <v>4.199406716304</v>
+        <v>12.391868883108</v>
       </c>
       <c r="S11">
-        <v>0.07033312252929889</v>
+        <v>0.1327694234464675</v>
       </c>
       <c r="T11">
-        <v>0.07289357222920743</v>
+        <v>0.1351676482476074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H12">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I12">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J12">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N12">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O12">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P12">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q12">
-        <v>0.03994506804633333</v>
+        <v>0.2251241897226667</v>
       </c>
       <c r="R12">
-        <v>0.359505612417</v>
+        <v>2.026117707504</v>
       </c>
       <c r="S12">
-        <v>0.006021124886505297</v>
+        <v>0.02170830585745475</v>
       </c>
       <c r="T12">
-        <v>0.006240321572993119</v>
+        <v>0.02210042473653588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H13">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I13">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J13">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.96751</v>
       </c>
       <c r="O13">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P13">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q13">
-        <v>0.4520411280233333</v>
+        <v>0.9608243444800001</v>
       </c>
       <c r="R13">
-        <v>4.06837015221</v>
+        <v>8.64741910032</v>
       </c>
       <c r="S13">
-        <v>0.06813847663266305</v>
+        <v>0.09265050002381074</v>
       </c>
       <c r="T13">
-        <v>0.07061903111072777</v>
+        <v>0.09432405347630955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H14">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I14">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J14">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N14">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O14">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P14">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q14">
-        <v>0.8742183947536667</v>
+        <v>2.246479397594667</v>
       </c>
       <c r="R14">
-        <v>7.867965552783001</v>
+        <v>20.218314578352</v>
       </c>
       <c r="S14">
-        <v>0.1317754203544332</v>
+        <v>0.2166238196149989</v>
       </c>
       <c r="T14">
-        <v>0.1365726527730746</v>
+        <v>0.2205367131354546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H15">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I15">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J15">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N15">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O15">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P15">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q15">
-        <v>0.1802788020821667</v>
+        <v>0.266404690816</v>
       </c>
       <c r="R15">
-        <v>1.081672812493</v>
+        <v>1.598428144896</v>
       </c>
       <c r="S15">
-        <v>0.02717434804384908</v>
+        <v>0.02568890760792425</v>
       </c>
       <c r="T15">
-        <v>0.01877574634047917</v>
+        <v>0.01743528561159124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4569903333333333</v>
+        <v>0.9713440000000001</v>
       </c>
       <c r="H16">
-        <v>1.370971</v>
+        <v>2.914032</v>
       </c>
       <c r="I16">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616066</v>
       </c>
       <c r="J16">
-        <v>0.2578759637401044</v>
+        <v>0.4826221497616065</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N16">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O16">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P16">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q16">
-        <v>0.164305390466</v>
+        <v>1.306160448736</v>
       </c>
       <c r="R16">
-        <v>1.478748514194</v>
+        <v>11.755444038624</v>
       </c>
       <c r="S16">
-        <v>0.02476659382265374</v>
+        <v>0.125950616657418</v>
       </c>
       <c r="T16">
-        <v>0.02566821194282969</v>
+        <v>0.1282256728017152</v>
       </c>
     </row>
   </sheetData>
